--- a/natmiOut/OldD0/LR-pairs_lrc2p/Spp1-Itga9.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Spp1-Itga9.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>50.9010888983583</v>
+        <v>282.7879796666667</v>
       </c>
       <c r="H2">
-        <v>50.9010888983583</v>
+        <v>848.363939</v>
       </c>
       <c r="I2">
-        <v>0.8661803810028779</v>
+        <v>0.9674521741401267</v>
       </c>
       <c r="J2">
-        <v>0.8661803810028779</v>
+        <v>0.9674521741401266</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.45154717262048</v>
+        <v>2.044118333333333</v>
       </c>
       <c r="N2">
-        <v>1.45154717262048</v>
+        <v>6.132354999999999</v>
       </c>
       <c r="O2">
-        <v>0.133324603936485</v>
+        <v>0.1776005292722278</v>
       </c>
       <c r="P2">
-        <v>0.133324603936485</v>
+        <v>0.1776005292722278</v>
       </c>
       <c r="Q2">
-        <v>73.8853316737157</v>
+        <v>578.0520936829272</v>
       </c>
       <c r="R2">
-        <v>73.8853316737157</v>
+        <v>5202.468843146344</v>
       </c>
       <c r="S2">
-        <v>0.1154831562347624</v>
+        <v>0.171820018172854</v>
       </c>
       <c r="T2">
-        <v>0.1154831562347624</v>
+        <v>0.171820018172854</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>50.9010888983583</v>
+        <v>282.7879796666667</v>
       </c>
       <c r="H3">
-        <v>50.9010888983583</v>
+        <v>848.363939</v>
       </c>
       <c r="I3">
-        <v>0.8661803810028779</v>
+        <v>0.9674521741401267</v>
       </c>
       <c r="J3">
-        <v>0.8661803810028779</v>
+        <v>0.9674521741401266</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.04835693560671</v>
+        <v>7.059280333333334</v>
       </c>
       <c r="N3">
-        <v>7.04835693560671</v>
+        <v>21.177841</v>
       </c>
       <c r="O3">
-        <v>0.6473915657499887</v>
+        <v>0.6133362746356149</v>
       </c>
       <c r="P3">
-        <v>0.6473915657499887</v>
+        <v>0.6133362746356149</v>
       </c>
       <c r="Q3">
-        <v>358.7690429666775</v>
+        <v>1996.279623363967</v>
       </c>
       <c r="R3">
-        <v>358.7690429666775</v>
+        <v>17966.5166102757</v>
       </c>
       <c r="S3">
-        <v>0.5607578730793749</v>
+        <v>0.5933735123752315</v>
       </c>
       <c r="T3">
-        <v>0.5607578730793749</v>
+        <v>0.5933735123752314</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>50.9010888983583</v>
+        <v>282.7879796666667</v>
       </c>
       <c r="H4">
-        <v>50.9010888983583</v>
+        <v>848.363939</v>
       </c>
       <c r="I4">
-        <v>0.8661803810028779</v>
+        <v>0.9674521741401267</v>
       </c>
       <c r="J4">
-        <v>0.8661803810028779</v>
+        <v>0.9674521741401266</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.38741248423003</v>
+        <v>2.406242333333333</v>
       </c>
       <c r="N4">
-        <v>2.38741248423003</v>
+        <v>7.218726999999999</v>
       </c>
       <c r="O4">
-        <v>0.2192838303135265</v>
+        <v>0.2090631960921573</v>
       </c>
       <c r="P4">
-        <v>0.2192838303135265</v>
+        <v>0.2090631960921573</v>
       </c>
       <c r="Q4">
-        <v>121.5218950968432</v>
+        <v>680.4564080317392</v>
       </c>
       <c r="R4">
-        <v>121.5218950968432</v>
+        <v>6124.107672285652</v>
       </c>
       <c r="S4">
-        <v>0.1899393516887408</v>
+        <v>0.2022586435920412</v>
       </c>
       <c r="T4">
-        <v>0.1899393516887408</v>
+        <v>0.2022586435920412</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.08930503497068</v>
+        <v>7.714696666666668</v>
       </c>
       <c r="H5">
-        <v>6.08930503497068</v>
+        <v>23.14409</v>
       </c>
       <c r="I5">
-        <v>0.1036212912019601</v>
+        <v>0.02639291836872237</v>
       </c>
       <c r="J5">
-        <v>0.1036212912019601</v>
+        <v>0.02639291836872237</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.45154717262048</v>
+        <v>2.044118333333333</v>
       </c>
       <c r="N5">
-        <v>1.45154717262048</v>
+        <v>6.132354999999999</v>
       </c>
       <c r="O5">
-        <v>0.133324603936485</v>
+        <v>0.1776005292722278</v>
       </c>
       <c r="P5">
-        <v>0.133324603936485</v>
+        <v>0.1776005292722278</v>
       </c>
       <c r="Q5">
-        <v>8.838913506735343</v>
+        <v>15.76975289243889</v>
       </c>
       <c r="R5">
-        <v>8.838913506735343</v>
+        <v>141.92777603195</v>
       </c>
       <c r="S5">
-        <v>0.01381526760888851</v>
+        <v>0.004687396271323796</v>
       </c>
       <c r="T5">
-        <v>0.01381526760888851</v>
+        <v>0.004687396271323796</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.08930503497068</v>
+        <v>7.714696666666668</v>
       </c>
       <c r="H6">
-        <v>6.08930503497068</v>
+        <v>23.14409</v>
       </c>
       <c r="I6">
-        <v>0.1036212912019601</v>
+        <v>0.02639291836872237</v>
       </c>
       <c r="J6">
-        <v>0.1036212912019601</v>
+        <v>0.02639291836872237</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.04835693560671</v>
+        <v>7.059280333333334</v>
       </c>
       <c r="N6">
-        <v>7.04835693560671</v>
+        <v>21.177841</v>
       </c>
       <c r="O6">
-        <v>0.6473915657499887</v>
+        <v>0.6133362746356149</v>
       </c>
       <c r="P6">
-        <v>0.6473915657499887</v>
+        <v>0.6133362746356149</v>
       </c>
       <c r="Q6">
-        <v>42.91959537626045</v>
+        <v>54.46020645663223</v>
       </c>
       <c r="R6">
-        <v>42.91959537626045</v>
+        <v>490.1418581096901</v>
       </c>
       <c r="S6">
-        <v>0.0670835499562725</v>
+        <v>0.01618773422903407</v>
       </c>
       <c r="T6">
-        <v>0.0670835499562725</v>
+        <v>0.01618773422903407</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.08930503497068</v>
+        <v>7.714696666666668</v>
       </c>
       <c r="H7">
-        <v>6.08930503497068</v>
+        <v>23.14409</v>
       </c>
       <c r="I7">
-        <v>0.1036212912019601</v>
+        <v>0.02639291836872237</v>
       </c>
       <c r="J7">
-        <v>0.1036212912019601</v>
+        <v>0.02639291836872237</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.38741248423003</v>
+        <v>2.406242333333333</v>
       </c>
       <c r="N7">
-        <v>2.38741248423003</v>
+        <v>7.218726999999999</v>
       </c>
       <c r="O7">
-        <v>0.2192838303135265</v>
+        <v>0.2090631960921573</v>
       </c>
       <c r="P7">
-        <v>0.2192838303135265</v>
+        <v>0.2090631960921573</v>
       </c>
       <c r="Q7">
-        <v>14.53768286077378</v>
+        <v>18.56342970815889</v>
       </c>
       <c r="R7">
-        <v>14.53768286077378</v>
+        <v>167.07086737343</v>
       </c>
       <c r="S7">
-        <v>0.02272247363679914</v>
+        <v>0.005517787868364505</v>
       </c>
       <c r="T7">
-        <v>0.02272247363679914</v>
+        <v>0.005517787868364505</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.77460469135031</v>
+        <v>1.799090333333333</v>
       </c>
       <c r="H8">
-        <v>1.77460469135031</v>
+        <v>5.397271</v>
       </c>
       <c r="I8">
-        <v>0.03019832779516201</v>
+        <v>0.006154907491150983</v>
       </c>
       <c r="J8">
-        <v>0.03019832779516201</v>
+        <v>0.006154907491150983</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.45154717262048</v>
+        <v>2.044118333333333</v>
       </c>
       <c r="N8">
-        <v>1.45154717262048</v>
+        <v>6.132354999999999</v>
       </c>
       <c r="O8">
-        <v>0.133324603936485</v>
+        <v>0.1776005292722278</v>
       </c>
       <c r="P8">
-        <v>0.133324603936485</v>
+        <v>0.1776005292722278</v>
       </c>
       <c r="Q8">
-        <v>2.575922422248582</v>
+        <v>3.677553533689444</v>
       </c>
       <c r="R8">
-        <v>2.575922422248582</v>
+        <v>33.09798180320499</v>
       </c>
       <c r="S8">
-        <v>0.00402618009283412</v>
+        <v>0.001093114828050014</v>
       </c>
       <c r="T8">
-        <v>0.00402618009283412</v>
+        <v>0.001093114828050014</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.77460469135031</v>
+        <v>1.799090333333333</v>
       </c>
       <c r="H9">
-        <v>1.77460469135031</v>
+        <v>5.397271</v>
       </c>
       <c r="I9">
-        <v>0.03019832779516201</v>
+        <v>0.006154907491150983</v>
       </c>
       <c r="J9">
-        <v>0.03019832779516201</v>
+        <v>0.006154907491150983</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.04835693560671</v>
+        <v>7.059280333333334</v>
       </c>
       <c r="N9">
-        <v>7.04835693560671</v>
+        <v>21.177841</v>
       </c>
       <c r="O9">
-        <v>0.6473915657499887</v>
+        <v>0.6133362746356149</v>
       </c>
       <c r="P9">
-        <v>0.6473915657499887</v>
+        <v>0.6133362746356149</v>
       </c>
       <c r="Q9">
-        <v>12.50804728423916</v>
+        <v>12.70028300799011</v>
       </c>
       <c r="R9">
-        <v>12.50804728423916</v>
+        <v>114.302547071911</v>
       </c>
       <c r="S9">
-        <v>0.01955014271434134</v>
+        <v>0.003775028031349383</v>
       </c>
       <c r="T9">
-        <v>0.01955014271434134</v>
+        <v>0.003775028031349383</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.77460469135031</v>
+        <v>1.799090333333333</v>
       </c>
       <c r="H10">
-        <v>1.77460469135031</v>
+        <v>5.397271</v>
       </c>
       <c r="I10">
-        <v>0.03019832779516201</v>
+        <v>0.006154907491150983</v>
       </c>
       <c r="J10">
-        <v>0.03019832779516201</v>
+        <v>0.006154907491150983</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.38741248423003</v>
+        <v>2.406242333333333</v>
       </c>
       <c r="N10">
-        <v>2.38741248423003</v>
+        <v>7.218726999999999</v>
       </c>
       <c r="O10">
-        <v>0.2192838303135265</v>
+        <v>0.2090631960921573</v>
       </c>
       <c r="P10">
-        <v>0.2192838303135265</v>
+        <v>0.2090631960921573</v>
       </c>
       <c r="Q10">
-        <v>4.236713394702909</v>
+        <v>4.329047321557444</v>
       </c>
       <c r="R10">
-        <v>4.236713394702909</v>
+        <v>38.961425894017</v>
       </c>
       <c r="S10">
-        <v>0.006622004987986556</v>
+        <v>0.001286764631751586</v>
       </c>
       <c r="T10">
-        <v>0.006622004987986556</v>
+        <v>0.001286764631751586</v>
       </c>
     </row>
   </sheetData>
